--- a/Lotes a procesar/entrada_predictiveQAcl.xlsx
+++ b/Lotes a procesar/entrada_predictiveQAcl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,6 +71,153 @@
   </si>
   <si>
     <t xml:space="preserve">ALMAGRO, 1840, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALLE LAGUNA, , COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERNAN TRIZZANO, 274, CHILE CHICO, CHILE CHICO, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJE CURICO, 656, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO MAIQUEN, 330, COCHRANE, COCHRANE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMISTOCLES, 5138, AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O HIGGINS, , AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G ADARME, 513, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERODROMO BALMACEDA CA, , COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAUTARO, 221, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POB A PRAT LOS FLAMENCOS 877, , COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJE SAN GABRIEL, 6, CHILE CHICO, CHILE CHICO, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGTO, 14, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO MAITEN, 520, COCHRANE, COCHRANE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAQUEDANO ESQ EJERCITO, , COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO BILBAO, 222, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS ABUTARDAS, 62, AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L ABOLADOS, 160, RIO IBANEZ, CHILE CHICO, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS TRANQUERAS, 979, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTTO VEBEL, , CISNES, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA VERANADA, 4484, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEPENDENCIA, 823, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJE GUACOLDA, 171, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTURO PRAT, 4012, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJE A, 624, AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS PINOS, 950, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS CIPRECES, 560, AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDELL, , AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P NERUDA, , AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POB J M CARRERA DIVISADERO 359, , COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTON ADARNE, 427, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAPANANDA, , LAGO VERDE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS ARRAYANES, 1127, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POB J M CARRERA, 44, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAGO PORTALES, 685, AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAQUEDANO, 1233, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBERTAD, 521, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS CANELOS, 1025, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA, 555, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELA MISTRAL, 500, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS NIEVES, , COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO BILBA O, 413A, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO BILBAO, 2006, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAPERA, , LAGO VERDE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASAJE MARCHANT, 1473, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTA BURGOS, 163, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJERCITO, 30, COYHAIQUE, COYHAIQUE, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEUTERIO RAMIREZ, 995, AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO LOS PALOS, 439, AYSEN, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H DE MAGALLANES, 239, CISNES, AYSEN, AYSEN DEL GENERAL CARLOS IBANEZ</t>
   </si>
 </sst>
 </file>
@@ -146,13 +293,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -344,10 +495,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,124 +511,548 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
